--- a/VHDL/Speed_Test/Speed_Test.xlsx
+++ b/VHDL/Speed_Test/Speed_Test.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Philip\Work\VHDL\Public\VHDL\Speed_Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{276652CD-0D7D-4ACD-9B1C-B2BB63AA36FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3D8A91-D9F4-4F3C-9A9F-D4071B32F702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3750" yWindow="910" windowWidth="28600" windowHeight="18970" xr2:uid="{B2ED5811-C0FE-4F49-B972-7C3F20F16D2E}"/>
+    <workbookView xWindow="12580" yWindow="3500" windowWidth="25130" windowHeight="16990" activeTab="1" xr2:uid="{B2ED5811-C0FE-4F49-B972-7C3F20F16D2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Fmax" sheetId="2" r:id="rId1"/>
-    <sheet name="Chart" sheetId="1" r:id="rId2"/>
+    <sheet name="Fmax by Time" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">Fmax!$A$1:$K$128</definedName>
@@ -1366,7 +1366,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Chart!$E$3</c:f>
+              <c:f>'Fmax by Time'!$E$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1513,7 +1513,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7CD4039B-E5BB-44F9-907E-E551750A5366}" type="CELLRANGE">
+                    <a:fld id="{FC13CBAA-FE7E-4D57-B43B-B46C0A1C00ED}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1546,7 +1546,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F3E9BAA3-320F-4D1B-8EB6-09F215C90CFD}" type="CELLRANGE">
+                    <a:fld id="{BB2B0A26-EA5A-45C5-8206-BAEEE2B92F06}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1579,7 +1579,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CEC0A8BE-A9DC-4F4C-B7E5-A9D01B440915}" type="CELLRANGE">
+                    <a:fld id="{5ABD677B-B03C-44B6-BC4A-B8E668E28AFF}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1726,7 +1726,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8E003A4F-2B04-4149-9280-5FCEDFF8D23A}" type="CELLRANGE">
+                    <a:fld id="{7E51E3BE-6C49-4937-9EFC-D666F9EDE45E}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1849,7 +1849,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Chart!$C$4:$C$14</c:f>
+              <c:f>'Fmax by Time'!$C$4:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yy</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1891,7 +1891,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Chart!$E$4:$E$14</c:f>
+              <c:f>'Fmax by Time'!$E$4:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1935,7 +1935,7 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>Chart!$B$4:$B$14</c15:f>
+                <c15:f>'Fmax by Time'!$B$4:$B$14</c15:f>
                 <c15:dlblRangeCache>
                   <c:ptCount val="11"/>
                   <c:pt idx="0">
@@ -2000,7 +2000,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Chart!$D$3</c15:sqref>
+                          <c15:sqref>'Fmax by Time'!$D$3</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2449,7 +2449,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Chart!$C$4:$C$14</c15:sqref>
+                          <c15:sqref>'Fmax by Time'!$C$4:$C$14</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2497,7 +2497,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Chart!$D$4:$D$14</c15:sqref>
+                          <c15:sqref>'Fmax by Time'!$D$4:$D$14</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2544,7 +2544,7 @@
                 <c:extLst>
                   <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                     <c15:datalabelsRange>
-                      <c15:f>Chart!$B$4:$B$14</c15:f>
+                      <c15:f>'Fmax by Time'!$B$4:$B$14</c15:f>
                       <c15:dlblRangeCache>
                         <c:ptCount val="11"/>
                         <c:pt idx="0">
@@ -3855,8 +3855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5042CC44-DC3B-491F-B3AE-2033FA29B5E0}">
   <dimension ref="A1:P128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L128"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8953,8 +8953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C10DABA-1D40-49B0-975E-268399ED2D14}">
   <dimension ref="B3:E14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
